--- a/project_figures_and_tables/experiment_data.xlsx
+++ b/project_figures_and_tables/experiment_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HSDELL\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F2A3A14-F4F5-4789-82B9-48F568A6D6FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAED112C-0081-41C5-A2C6-6D6F53766589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3C8BE4B1-E1E1-449E-99E2-70254EA8F56B}"/>
   </bookViews>
@@ -35,21 +35,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>kmeans</t>
-  </si>
-  <si>
-    <t>window</t>
-  </si>
-  <si>
-    <t>New algorithm</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
     <t>minsup</t>
   </si>
   <si>
-    <t>Window</t>
+    <t>Window Algorithm</t>
+  </si>
+  <si>
+    <t>Our Algorithm</t>
+  </si>
+  <si>
+    <t>Our algorithm</t>
   </si>
 </sst>
 </file>
@@ -119,6 +116,32 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t>Runtime Comparison: Our Algorithm vs. Window Algorithm</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-CA" sz="1000"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -163,7 +186,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>kmeans</c:v>
+                  <c:v>Our Algorithm</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -247,7 +270,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>window</c:v>
+                  <c:v>Window Algorithm</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -343,6 +366,31 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Experiments</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -457,7 +505,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-CA"/>
-                  <a:t>Run time </a:t>
+                  <a:t>Runtime (seconds)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -632,22 +680,45 @@
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  </a:sysClr>
                 </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-CA"/>
-              <a:t>Comparison of number of result from different algorithm </a:t>
+              <a:rPr lang="en-CA" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Number of Rules Generated: Our Algorithm vs. Window Algorithm</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -664,17 +735,31 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
-                </a:schemeClr>
+                </a:sysClr>
               </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -685,18 +770,18 @@
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
-        <c:grouping val="stacked"/>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'number of result'!$B$1</c:f>
+              <c:f>'number of result'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Window</c:v>
+                  <c:v>Our algorithm</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -727,7 +812,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'number of result'!$A$2:$A$10</c:f>
+              <c:f>'number of result'!$B$1:$J$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -763,36 +848,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'number of result'!$B$2:$B$10</c:f>
+              <c:f>'number of result'!$B$2:$J$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -800,7 +885,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C1B5-40B1-82D9-BB3AC2FF145D}"/>
+              <c16:uniqueId val="{00000000-F032-4E02-9213-D3D9A95BE681}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -809,11 +894,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'number of result'!$C$1</c:f>
+              <c:f>'number of result'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>New algorithm</c:v>
+                  <c:v>Window Algorithm</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -844,7 +929,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'number of result'!$A$2:$A$10</c:f>
+              <c:f>'number of result'!$B$1:$J$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -880,36 +965,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'number of result'!$C$2:$C$10</c:f>
+              <c:f>'number of result'!$B$3:$J$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>39</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>49</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -917,7 +1002,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C1B5-40B1-82D9-BB3AC2FF145D}"/>
+              <c16:uniqueId val="{00000001-F032-4E02-9213-D3D9A95BE681}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -931,11 +1016,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="266373024"/>
-        <c:axId val="266371104"/>
+        <c:axId val="1615015264"/>
+        <c:axId val="1615015744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="266373024"/>
+        <c:axId val="1615015264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -947,24 +1032,46 @@
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
+                      <a:sysClr val="windowText" lastClr="000000">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      </a:sysClr>
                     </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>minsup</a:t>
+                  <a:rPr lang="en-CA" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Minimum Support Value</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-CA"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -980,17 +1087,31 @@
             <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
+                    <a:sysClr val="windowText" lastClr="000000">
                       <a:lumMod val="65000"/>
                       <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    </a:sysClr>
                   </a:solidFill>
-                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="en-US"/>
@@ -1026,15 +1147,15 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="266371104"/>
+        <c:crossAx val="1615015744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1042,7 +1163,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="266371104"/>
+        <c:axId val="1615015744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1076,16 +1197,24 @@
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Number of Result</a:t>
+                  <a:rPr lang="en-CA" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Number of Rules</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-CA"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1109,9 +1238,9 @@
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="en-US"/>
@@ -1141,15 +1270,15 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="266373024"/>
+        <c:crossAx val="1615015264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1183,9 +1312,9 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -1216,10 +1345,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr>
-          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-        </a:defRPr>
+        <a:defRPr/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -2322,16 +2448,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>289560</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2363,23 +2489,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73319BC2-7CED-D523-D5AE-36669D5F277F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09E73BDB-0E2D-FDF7-3203-FF322F768FB1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2700,14 +2826,18 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.109375" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2795,135 +2925,124 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC8F3A6A-0E2E-4675-B537-B440010C4560}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="15.21875" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0.2</v>
+      </c>
+      <c r="C1">
+        <v>0.15</v>
+      </c>
+      <c r="D1">
+        <v>0.12</v>
+      </c>
+      <c r="E1">
+        <v>0.1</v>
+      </c>
+      <c r="F1">
+        <v>0.08</v>
+      </c>
+      <c r="G1">
+        <v>0.05</v>
+      </c>
+      <c r="H1">
+        <v>0.02</v>
+      </c>
+      <c r="I1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0.2</v>
-      </c>
       <c r="B2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>5</v>
       </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>30</v>
+      </c>
+      <c r="F2">
+        <v>9</v>
+      </c>
+      <c r="G2">
+        <v>14</v>
+      </c>
+      <c r="H2">
+        <v>24</v>
+      </c>
+      <c r="I2">
+        <v>39</v>
+      </c>
+      <c r="J2">
+        <v>49</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>0.15</v>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>0.12</v>
-      </c>
-      <c r="B4">
         <v>0</v>
       </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>0.1</v>
-      </c>
-      <c r="B5">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
         <v>3</v>
       </c>
-      <c r="C5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>0.08</v>
-      </c>
-      <c r="B6">
+      <c r="F3">
         <v>3</v>
       </c>
-      <c r="C6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>0.05</v>
-      </c>
-      <c r="B7">
+      <c r="G3">
         <v>3</v>
       </c>
-      <c r="C7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>0.02</v>
-      </c>
-      <c r="B8">
+      <c r="H3">
         <v>3</v>
       </c>
-      <c r="C8">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="B9">
+      <c r="I3">
         <v>3</v>
       </c>
-      <c r="C9">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>1E-3</v>
-      </c>
-      <c r="B10">
+      <c r="J3">
         <v>3</v>
-      </c>
-      <c r="C10">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>